--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-11/Sample-11.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-11/Sample-11.xlsx
@@ -10,6 +10,12 @@
     <sheet name="Reflection" sheetId="3" r:id="rId3"/>
     <sheet name="Soft Edge" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shadows'!$B$2:$X$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Illumination'!$B$2:$L$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Reflection'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Soft Edge'!$B$2:$C$2</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -147,16 +153,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="bf01abc0" xfId="1"/>
-    <cellStyle name="bf01abc0_Alternate" xfId="2"/>
+    <cellStyle name="fvl3eexw" xfId="1"/>
+    <cellStyle name="fvl3eexw_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="isvd32dv" xfId="5"/>
-    <cellStyle name="isvd32dv_Alternate" xfId="6"/>
-    <cellStyle name="upvtiztj" xfId="7"/>
-    <cellStyle name="upvtiztj_Alternate" xfId="8"/>
-    <cellStyle name="avxxaykg" xfId="9"/>
-    <cellStyle name="avxxaykg_Alternate" xfId="10"/>
+    <cellStyle name="e3lpjjd2" xfId="5"/>
+    <cellStyle name="e3lpjjd2_Alternate" xfId="6"/>
+    <cellStyle name="j0pmfayt" xfId="7"/>
+    <cellStyle name="j0pmfayt_Alternate" xfId="8"/>
+    <cellStyle name="vaos3ari" xfId="9"/>
+    <cellStyle name="vaos3ari_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -4498,6 +4504,31 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="21" max="21" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="24" max="24" bestFit="1" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="11" t="s">
@@ -4570,6 +4601,8 @@
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="T2:X2"/>
   </mergeCells>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4582,6 +4615,19 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="10.2919139862061" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.2919139862061" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.2919139862061" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="10.2919139862061" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="10.2919139862061" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="10.2919139862061" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="11" t="s">
@@ -4604,6 +4650,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4616,6 +4664,16 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="11" t="s">
@@ -4643,6 +4701,8 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4655,6 +4715,10 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="11" t="s">
@@ -4668,6 +4732,8 @@
   <mergeCells>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-11/Sample-11.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-11/Sample-11.xlsx
@@ -153,16 +153,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="fvl3eexw" xfId="1"/>
-    <cellStyle name="fvl3eexw_Alternate" xfId="2"/>
+    <cellStyle name="ouadgg0s" xfId="1"/>
+    <cellStyle name="ouadgg0s_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="e3lpjjd2" xfId="5"/>
-    <cellStyle name="e3lpjjd2_Alternate" xfId="6"/>
-    <cellStyle name="j0pmfayt" xfId="7"/>
-    <cellStyle name="j0pmfayt_Alternate" xfId="8"/>
-    <cellStyle name="vaos3ari" xfId="9"/>
-    <cellStyle name="vaos3ari_Alternate" xfId="10"/>
+    <cellStyle name="12wpqwok" xfId="5"/>
+    <cellStyle name="12wpqwok_Alternate" xfId="6"/>
+    <cellStyle name="h3fljmlm" xfId="7"/>
+    <cellStyle name="h3fljmlm_Alternate" xfId="8"/>
+    <cellStyle name="voq2ckdv" xfId="9"/>
+    <cellStyle name="voq2ckdv_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-11/Sample-11.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-11/Sample-11.xlsx
@@ -153,16 +153,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ouadgg0s" xfId="1"/>
-    <cellStyle name="ouadgg0s_Alternate" xfId="2"/>
+    <cellStyle name="bihfizhh" xfId="1"/>
+    <cellStyle name="bihfizhh_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="12wpqwok" xfId="5"/>
-    <cellStyle name="12wpqwok_Alternate" xfId="6"/>
-    <cellStyle name="h3fljmlm" xfId="7"/>
-    <cellStyle name="h3fljmlm_Alternate" xfId="8"/>
-    <cellStyle name="voq2ckdv" xfId="9"/>
-    <cellStyle name="voq2ckdv_Alternate" xfId="10"/>
+    <cellStyle name="0rq2hl0c" xfId="5"/>
+    <cellStyle name="0rq2hl0c_Alternate" xfId="6"/>
+    <cellStyle name="pux13rqw" xfId="7"/>
+    <cellStyle name="pux13rqw_Alternate" xfId="8"/>
+    <cellStyle name="xhx23g5k" xfId="9"/>
+    <cellStyle name="xhx23g5k_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
